--- a/medicine/Pharmacie/Novo_Nordisk/Novo_Nordisk.xlsx
+++ b/medicine/Pharmacie/Novo_Nordisk/Novo_Nordisk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Novo Nordisk est une entreprise pharmaceutique danoise. Elle est spécialisée dans les traitements contre le diabète mais aussi dans l'hémostase, l'hormone de croissance, les traitements hormonaux et l'obésité.
 En 2022, elle était la 6e entreprise pharmaceutique du monde en termes de valeur marché.
-En septembre 2023, Novo Nordisk est devenu la 1re capitalisation boursière en Europe grâce au succès de son antidiabétique coupe-faim Ozempic[5].
+En septembre 2023, Novo Nordisk est devenu la 1re capitalisation boursière en Europe grâce au succès de son antidiabétique coupe-faim Ozempic.
 </t>
         </is>
       </c>
@@ -514,17 +526,19 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Novo Nordisk est issu de la fusion en 1989 entre deux sociétés pharmaceutiques danoises : Novo Industri et Nordisk Gentofte.
-En janvier 2017, Novo Nordisk annonce avoir fait une offre d'acquisition sur Ablynx de 2,6 milliards d'euros, offre que ce dernier a refusé[6]. En janvier 2018, l'entreprise Sanofi surenchérit sur Novo Nordisk pour acquérir Ablynx, avec une proposition de 3,9 milliards d'euros. À la suite de cette proposition, Novo Nordisk renonce à l'acquisition[7].
-En août 2018, Novo Nordisk annonce l'acquisition de Ziylo, une entreprise britannique spécialisée dans les insulines gluco-sensibles, pour 800 millions de dollars[8].
-En juin 2020, Novo Nordisk annonce l'acquisition de Corvidia Therapeutics, une entreprise spécialisée dans les traitements cardiovasculaires, pour 725 millions de dollars[9].
-En novembre 2020, Novo Nordisk annonce l'acquisition d'Emisphere Technologies, entreprise spécialisée dans les comprimés, pour 1,8 milliard de dollars[10].
-En juillet 2021, Novo Nordisk annonce l'acquisition de Prothena, entreprise américaine spécialisée en cardiomyopathie, pour 1,23 milliard de dollars[11]. En novembre 2021, Novo Nordisk annonce l'acquisition de Dicerna Pharma pour 3,3 milliards de dollars[12].
-En juin 2023, Novo Nordisk rachète Biocorp, une société française spécialisée dans le développement et la fabrication de dispositifs médicaux et de systèmes d’administration de médicaments injectables pour 154 millions d’euros[13].
-En février 2024, Novo Nordisk annonce l'acquisition pour 16,2 milliards de dollars de Catalent, façonnier impliquée dans la fabrication du Wegovy[14].
-En mars 2024, après l'annonce de la sortie d'un nouveau traitement contre l'obésité, l’amycrétine, la valeur de Novo Nordisk grimpe de 8,33% à 556 milliards d'euros, plaçant l'entreprise à la 12ème place mondiale, au dessus de Tesla[15].
+En janvier 2017, Novo Nordisk annonce avoir fait une offre d'acquisition sur Ablynx de 2,6 milliards d'euros, offre que ce dernier a refusé. En janvier 2018, l'entreprise Sanofi surenchérit sur Novo Nordisk pour acquérir Ablynx, avec une proposition de 3,9 milliards d'euros. À la suite de cette proposition, Novo Nordisk renonce à l'acquisition.
+En août 2018, Novo Nordisk annonce l'acquisition de Ziylo, une entreprise britannique spécialisée dans les insulines gluco-sensibles, pour 800 millions de dollars.
+En juin 2020, Novo Nordisk annonce l'acquisition de Corvidia Therapeutics, une entreprise spécialisée dans les traitements cardiovasculaires, pour 725 millions de dollars.
+En novembre 2020, Novo Nordisk annonce l'acquisition d'Emisphere Technologies, entreprise spécialisée dans les comprimés, pour 1,8 milliard de dollars.
+En juillet 2021, Novo Nordisk annonce l'acquisition de Prothena, entreprise américaine spécialisée en cardiomyopathie, pour 1,23 milliard de dollars. En novembre 2021, Novo Nordisk annonce l'acquisition de Dicerna Pharma pour 3,3 milliards de dollars.
+En juin 2023, Novo Nordisk rachète Biocorp, une société française spécialisée dans le développement et la fabrication de dispositifs médicaux et de systèmes d’administration de médicaments injectables pour 154 millions d’euros.
+En février 2024, Novo Nordisk annonce l'acquisition pour 16,2 milliards de dollars de Catalent, façonnier impliquée dans la fabrication du Wegovy.
+En mars 2024, après l'annonce de la sortie d'un nouveau traitement contre l'obésité, l’amycrétine, la valeur de Novo Nordisk grimpe de 8,33% à 556 milliards d'euros, plaçant l'entreprise à la 12ème place mondiale, au dessus de Tesla.
 </t>
         </is>
       </c>
@@ -553,9 +567,11 @@
           <t>Sites de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise dispose d'un site de production en France, à Chartres, depuis 1961. Celui-ci produit des cartouches d’insuline, il assemble et conditionne également des stylos injecteurs d'insuline. Le site emploie 1600 salariés en 2023. À la suite du succès de l'antidiabétique Ozempic (alias Wegovy), l'entreprise annonce fin 2023 qu'elle va réaliser à Chartres un investissement de 2,1 milliards d'euros et augmenter ses effectifs de 500 salariés[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise dispose d'un site de production en France, à Chartres, depuis 1961. Celui-ci produit des cartouches d’insuline, il assemble et conditionne également des stylos injecteurs d'insuline. Le site emploie 1600 salariés en 2023. À la suite du succès de l'antidiabétique Ozempic (alias Wegovy), l'entreprise annonce fin 2023 qu'elle va réaliser à Chartres un investissement de 2,1 milliards d'euros et augmenter ses effectifs de 500 salariés.
 L'entreprise dispose d'un site de production en Algérie, à Tizi Ouzou LMTO, depuis 2006. Celui-ci produit de la forme sèche « NovoFormine » et de la « NovoNorme » en 2020.
 L'entreprise dispose aussi d'un autre site de production en Algérie, à Blida, LMB. Celui-ci produit  assemble et conditionne également des stylos injectables d'insuline PenFlex.
 </t>
@@ -586,14 +602,16 @@
           <t>Produits et marques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Levemir est la marque pour une insuline de recombinaison d'ADN. C'est un analogue d'insuline à action lente avec un substitut  Lys-(N-tetra decanoyl) pour B28, le 28e acide-aminé sur la chaîne B de l'insuline. C'est un substitut soluble pour l'injection[17]. Levemir est utilisé pour traiter les patients adultes diabétiques pour le contrôle de taux élevés de sucre dans le sang[18].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Levemir est la marque pour une insuline de recombinaison d'ADN. C'est un analogue d'insuline à action lente avec un substitut  Lys-(N-tetra decanoyl) pour B28, le 28e acide-aminé sur la chaîne B de l'insuline. C'est un substitut soluble pour l'injection. Levemir est utilisé pour traiter les patients adultes diabétiques pour le contrôle de taux élevés de sucre dans le sang.
 Norditropine est le nom de marque de la somatropine, une hormone polypeptide d'ADN recombiné. Elle comprend une séquence identique de 191 acides aminés que l'on trouve naturellement dans l'hormone humaine pituitaire de croissance (hGH).
 Novolin R est la marque de la compagnie pour l'insuline standard.
-NovoLog (ou NovoRapid) est la marque pour l'aspartate d'insuline, un substitut à action rapide pour injection. Elle a un acide aspartique substitué sur le B28[17].
-Novolog mix 70/30 est un mélange de 70 % d'une protamine asparte d'insuline en suspension avec 30 % d'asparte d'insuline pour injection[17].
-NovoSeven est une recombinaison de Facteur VII. C'est une pro enzyme protéase serine glycosylée dépendante de la vitamine K. Elle est utilisée dans le traitement de l'hémophilie lors des épisodes de saignement ou en prévention en cas d'intervention chirurgicale. NovoSeven est utilisé pour des injections intraveineuses[19].
+NovoLog (ou NovoRapid) est la marque pour l'aspartate d'insuline, un substitut à action rapide pour injection. Elle a un acide aspartique substitué sur le B28.
+Novolog mix 70/30 est un mélange de 70 % d'une protamine asparte d'insuline en suspension avec 30 % d'asparte d'insuline pour injection.
+NovoSeven est une recombinaison de Facteur VII. C'est une pro enzyme protéase serine glycosylée dépendante de la vitamine K. Elle est utilisée dans le traitement de l'hémophilie lors des épisodes de saignement ou en prévention en cas d'intervention chirurgicale. NovoSeven est utilisé pour des injections intraveineuses.
 Tresiba est le nom de marque de l’insuline dégludec. C'est une insuline basale de nouvelle génération administrée en une injection quotidienne. Avec une durée d’action supérieure à 42 heures, elle est la première insuline basale à offrir aux patients diabétiques la possibilité d’adapter, si besoin, l’heure de l’injection quotidienne.
 </t>
         </is>
@@ -623,7 +641,9 @@
           <t>Logo de l'entreprise</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ancien logo de Novo Nordisk.
@@ -656,14 +676,16 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010, Novo Nordisk a enfreint le code de conduite de l'Association of the British Pharmaceutical Industry en ne fournissant pas d'informations sur les effets secondaires du Victoza et en faisant la promotion du Victoza avant l'obtention de l'autorisation de mise sur le marché[20].
-En 2013, Novo Nordisk a dû rembourser 3,6 milliards de couronnes danoises à l'administration fiscale danoise en raison de prix de transfert erronés[21].
-En mars 2013, un débat a vu le jour dans lequel des scientifiques se sont demandé si la classe des incrétines des médicaments contre le diabète - à laquelle appartient Victoza - présentait un risque accru d'effets secondaires au niveau du pancréas, tels que la pancréatite et le cancer du pancréas. Il a été conclu que les données actuellement disponibles ne confirmaient pas ces inquiétudes[22].
-En octobre 2013, des lots d'insuline NovoMix 30 FlexPen et Penfill ont été rappelés dans certains pays européens, leur analyse ayant montré qu'un faible pourcentage des produits de ces lots ne répondait pas aux spécifications relatives à la concentration d'insuline[23].
-En septembre 2017, Novo Nordisk a accepté de payer 58,7 millions de dollars pour mettre fin à une enquête du ministère de la Justice des États-Unis sur l'absence de divulgation par la FDA aux médecins du risque de cancer pour leur médicament contre le diabète, Victoza[24].
-En mars 2023, Novo Nordisk a été suspendu de l'Association of the British Pharmaceutical Industry (ABPI)[25] pour une période de deux ans. C'est seulement la huitième fois au cours des 40 dernières années que l'ABPI inflige une telle sanction à une organisation membre[25]. En conséquence, le Royal College of General Practitioners [26]et le Royal College of Physicians[27] ont mis fin à leur partenariat d'entreprise, car il s'agissait d'une violation de leurs directives en matière d'éthique. Le directeur général de Novo Nordisk au Royaume-Uni, Pinder Sahota, a choisi de démissionner de son poste de président de l'ABPI avant la suspension[28].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, Novo Nordisk a enfreint le code de conduite de l'Association of the British Pharmaceutical Industry en ne fournissant pas d'informations sur les effets secondaires du Victoza et en faisant la promotion du Victoza avant l'obtention de l'autorisation de mise sur le marché.
+En 2013, Novo Nordisk a dû rembourser 3,6 milliards de couronnes danoises à l'administration fiscale danoise en raison de prix de transfert erronés.
+En mars 2013, un débat a vu le jour dans lequel des scientifiques se sont demandé si la classe des incrétines des médicaments contre le diabète - à laquelle appartient Victoza - présentait un risque accru d'effets secondaires au niveau du pancréas, tels que la pancréatite et le cancer du pancréas. Il a été conclu que les données actuellement disponibles ne confirmaient pas ces inquiétudes.
+En octobre 2013, des lots d'insuline NovoMix 30 FlexPen et Penfill ont été rappelés dans certains pays européens, leur analyse ayant montré qu'un faible pourcentage des produits de ces lots ne répondait pas aux spécifications relatives à la concentration d'insuline.
+En septembre 2017, Novo Nordisk a accepté de payer 58,7 millions de dollars pour mettre fin à une enquête du ministère de la Justice des États-Unis sur l'absence de divulgation par la FDA aux médecins du risque de cancer pour leur médicament contre le diabète, Victoza.
+En mars 2023, Novo Nordisk a été suspendu de l'Association of the British Pharmaceutical Industry (ABPI) pour une période de deux ans. C'est seulement la huitième fois au cours des 40 dernières années que l'ABPI inflige une telle sanction à une organisation membre. En conséquence, le Royal College of General Practitioners et le Royal College of Physicians ont mis fin à leur partenariat d'entreprise, car il s'agissait d'une violation de leurs directives en matière d'éthique. Le directeur général de Novo Nordisk au Royaume-Uni, Pinder Sahota, a choisi de démissionner de son poste de président de l'ABPI avant la suspension.
 </t>
         </is>
       </c>
@@ -692,10 +714,12 @@
           <t>Sponsoring</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque sponsorise une équipe cycliste depuis 2013 : l'équipe cycliste Novo Nordisk.
-La marque est membre fondateur et sponsorise l'association américaine du diabète (American Diabete association) qui publie des contenus éducatifs pour les professionnels de santé, et du public. Elle partage ce rôle de financeur avec d'autres entreprises du secteur telles que : Sanofi($100,000+/an), BD($100,000+/an), Pfizer($100,000+/an), Dexcom($100,000+/an), Abbott ($100,000+/an), Merck( $500,000+/an) , Lilly Diabetes( $1000000+/an)[29].
+La marque est membre fondateur et sponsorise l'association américaine du diabète (American Diabete association) qui publie des contenus éducatifs pour les professionnels de santé, et du public. Elle partage ce rôle de financeur avec d'autres entreprises du secteur telles que : Sanofi($100,000+/an), BD($100,000+/an), Pfizer($100,000+/an), Dexcom($100,000+/an), Abbott ($100,000+/an), Merck( $500,000+/an) , Lilly Diabetes( $1000000+/an).
 </t>
         </is>
       </c>
